--- a/data/reduccion-features.xlsx
+++ b/data/reduccion-features.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\hcgalvan\Repositorios\hcgalvan_project\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D779691E-D0C9-4418-B5DE-B52895855A70}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{38EAE0F4-3969-41A3-A1C0-AFE4E62256E3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="21840" windowHeight="13020" activeTab="1" xr2:uid="{23342ECB-748B-4818-8AA2-386746C62F4A}"/>
   </bookViews>
@@ -2486,7 +2486,7 @@
   <dimension ref="B1:M291"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2525,14 +2525,15 @@
       <c r="D2" s="2">
         <v>2.4311509403073799E-2</v>
       </c>
-      <c r="E2">
+      <c r="E2" s="2">
         <f>IF(ISERROR(VLOOKUP(B2,$L$1:$M$40,1,)),0,VLOOKUP(B2,$L$1:$M$40,1,))</f>
         <v>0</v>
       </c>
-      <c r="F2">
+      <c r="F2" s="2">
         <f>IF(ISERROR(VLOOKUP(B2,$L$1:$M$40,2,)),0,VLOOKUP(B2,$L$1:$M$40,2,))</f>
         <v>0</v>
       </c>
+      <c r="G2" s="2"/>
       <c r="L2" t="s">
         <v>44</v>
       </c>
@@ -2550,14 +2551,15 @@
       <c r="D3" s="2">
         <v>1.7588292222478E-2</v>
       </c>
-      <c r="E3" t="str">
+      <c r="E3" s="2" t="str">
         <f t="shared" ref="E3:E66" si="0">IF(ISERROR(VLOOKUP(B3,$L$1:$M$40,1,)),0,VLOOKUP(B3,$L$1:$M$40,1,))</f>
         <v>afsl_number_of_tracts</v>
       </c>
-      <c r="F3">
+      <c r="F3" s="2">
         <f t="shared" ref="F3:F66" si="1">IF(ISERROR(VLOOKUP(B3,$L$1:$M$40,2,)),0,VLOOKUP(B3,$L$1:$M$40,2,))</f>
         <v>2</v>
       </c>
+      <c r="G3" s="2"/>
       <c r="L3" t="s">
         <v>434</v>
       </c>
@@ -2575,14 +2577,15 @@
       <c r="D4" s="2">
         <v>1.6122732462215399E-2</v>
       </c>
-      <c r="E4" t="str">
+      <c r="E4" s="2" t="str">
         <f t="shared" si="0"/>
         <v>cfpl_number_of_tracts</v>
       </c>
-      <c r="F4">
+      <c r="F4" s="2">
         <f t="shared" si="1"/>
         <v>8</v>
       </c>
+      <c r="G4" s="2"/>
       <c r="L4" t="s">
         <v>330</v>
       </c>
@@ -2600,14 +2603,15 @@
       <c r="D5" s="2">
         <v>1.30025965988101E-2</v>
       </c>
-      <c r="E5" t="str">
+      <c r="E5" s="2" t="str">
         <f t="shared" si="0"/>
         <v>cfpr_volume</v>
       </c>
-      <c r="F5">
+      <c r="F5" s="2">
         <f t="shared" si="1"/>
         <v>13</v>
       </c>
+      <c r="G5" s="2"/>
       <c r="L5" t="s">
         <v>298</v>
       </c>
@@ -2625,14 +2629,15 @@
       <c r="D6" s="2">
         <v>1.27800011393586E-2</v>
       </c>
-      <c r="E6">
+      <c r="E6" s="2">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F6">
+      <c r="F6" s="2">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
+      <c r="G6" s="2"/>
       <c r="L6" t="s">
         <v>294</v>
       </c>
@@ -2650,14 +2655,15 @@
       <c r="D7" s="2">
         <v>1.21968578336946E-2</v>
       </c>
-      <c r="E7">
+      <c r="E7" s="2">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F7">
+      <c r="F7" s="2">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
+      <c r="G7" s="2"/>
       <c r="L7" t="s">
         <v>196</v>
       </c>
@@ -2675,14 +2681,15 @@
       <c r="D8" s="2">
         <v>1.19325451699032E-2</v>
       </c>
-      <c r="E8">
+      <c r="E8" s="2">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F8">
+      <c r="F8" s="2">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
+      <c r="G8" s="2"/>
       <c r="L8" t="s">
         <v>46</v>
       </c>
@@ -2700,14 +2707,15 @@
       <c r="D9" s="2">
         <v>1.0665248058301199E-2</v>
       </c>
-      <c r="E9">
+      <c r="E9" s="2">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F9">
+      <c r="F9" s="2">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
+      <c r="G9" s="2"/>
       <c r="L9" t="s">
         <v>558</v>
       </c>
@@ -2725,14 +2733,15 @@
       <c r="D10" s="2">
         <v>1.01815521776189E-2</v>
       </c>
-      <c r="E10" t="str">
+      <c r="E10" s="2" t="str">
         <f t="shared" si="0"/>
         <v>slfl_area_of_end_region_1</v>
       </c>
-      <c r="F10">
+      <c r="F10" s="2">
         <f t="shared" si="1"/>
         <v>22</v>
       </c>
+      <c r="G10" s="2"/>
       <c r="L10" t="s">
         <v>212</v>
       </c>
@@ -2750,14 +2759,15 @@
       <c r="D11" s="2">
         <v>9.3050151221939006E-3</v>
       </c>
-      <c r="E11" t="str">
+      <c r="E11" s="2" t="str">
         <f t="shared" si="0"/>
         <v>fatl_number_of_tracts</v>
       </c>
-      <c r="F11">
+      <c r="F11" s="2">
         <f t="shared" si="1"/>
         <v>15</v>
       </c>
+      <c r="G11" s="2"/>
       <c r="L11" t="s">
         <v>232</v>
       </c>
@@ -2775,14 +2785,15 @@
       <c r="D12" s="2">
         <v>9.1284813461048903E-3</v>
       </c>
-      <c r="E12">
+      <c r="E12" s="2">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F12">
+      <c r="F12" s="2">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
+      <c r="G12" s="2"/>
       <c r="L12" t="s">
         <v>370</v>
       </c>
@@ -2800,14 +2811,15 @@
       <c r="D13" s="2">
         <v>8.9609296041444197E-3</v>
       </c>
-      <c r="E13">
+      <c r="E13" s="2">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F13">
+      <c r="F13" s="2">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
+      <c r="G13" s="2"/>
       <c r="L13" t="s">
         <v>48</v>
       </c>
@@ -2822,17 +2834,18 @@
       <c r="C14" t="s">
         <v>67</v>
       </c>
-      <c r="D14">
+      <c r="D14" s="2">
         <v>8.88537749134281E-3</v>
       </c>
-      <c r="E14">
+      <c r="E14" s="2">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F14">
+      <c r="F14" s="2">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
+      <c r="G14" s="2"/>
       <c r="L14" t="s">
         <v>376</v>
       </c>
@@ -2847,17 +2860,18 @@
       <c r="C15" t="s">
         <v>69</v>
       </c>
-      <c r="D15">
+      <c r="D15" s="2">
         <v>8.8796654268744092E-3</v>
       </c>
-      <c r="E15">
+      <c r="E15" s="2">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F15">
+      <c r="F15" s="2">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
+      <c r="G15" s="2"/>
       <c r="L15" t="s">
         <v>60</v>
       </c>
@@ -2872,17 +2886,18 @@
       <c r="C16" t="s">
         <v>71</v>
       </c>
-      <c r="D16">
+      <c r="D16" s="2">
         <v>8.5188352390101908E-3</v>
       </c>
-      <c r="E16">
+      <c r="E16" s="2">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F16">
+      <c r="F16" s="2">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
+      <c r="G16" s="2"/>
       <c r="L16" t="s">
         <v>280</v>
       </c>
@@ -2897,17 +2912,18 @@
       <c r="C17" t="s">
         <v>73</v>
       </c>
-      <c r="D17">
+      <c r="D17" s="2">
         <v>8.5177470331425694E-3</v>
       </c>
-      <c r="E17">
+      <c r="E17" s="2">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F17">
+      <c r="F17" s="2">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
+      <c r="G17" s="2"/>
       <c r="L17" t="s">
         <v>258</v>
       </c>
@@ -2922,17 +2938,18 @@
       <c r="C18" t="s">
         <v>75</v>
       </c>
-      <c r="D18">
+      <c r="D18" s="2">
         <v>8.2065963641929397E-3</v>
       </c>
-      <c r="E18">
+      <c r="E18" s="2">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F18">
+      <c r="F18" s="2">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
+      <c r="G18" s="2"/>
       <c r="L18" t="s">
         <v>186</v>
       </c>
@@ -2947,17 +2964,18 @@
       <c r="C19" t="s">
         <v>77</v>
       </c>
-      <c r="D19">
+      <c r="D19" s="2">
         <v>8.1152285413338392E-3</v>
       </c>
-      <c r="E19" t="str">
+      <c r="E19" s="2" t="str">
         <f t="shared" si="0"/>
         <v>slfl_total_area_of_end_regions</v>
       </c>
-      <c r="F19">
+      <c r="F19" s="2">
         <f t="shared" si="1"/>
         <v>25</v>
       </c>
+      <c r="G19" s="2"/>
       <c r="L19" t="s">
         <v>184</v>
       </c>
@@ -2972,17 +2990,18 @@
       <c r="C20" t="s">
         <v>79</v>
       </c>
-      <c r="D20">
+      <c r="D20" s="2">
         <v>7.8985819443570197E-3</v>
       </c>
-      <c r="E20">
+      <c r="E20" s="2">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F20">
+      <c r="F20" s="2">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
+      <c r="G20" s="2"/>
       <c r="L20" t="s">
         <v>210</v>
       </c>
@@ -2997,17 +3016,18 @@
       <c r="C21" t="s">
         <v>81</v>
       </c>
-      <c r="D21">
+      <c r="D21" s="2">
         <v>7.6402865191092101E-3</v>
       </c>
-      <c r="E21">
+      <c r="E21" s="2">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F21">
+      <c r="F21" s="2">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
+      <c r="G21" s="2"/>
       <c r="L21" t="s">
         <v>164</v>
       </c>
@@ -3022,17 +3042,18 @@
       <c r="C22" t="s">
         <v>83</v>
       </c>
-      <c r="D22">
+      <c r="D22" s="2">
         <v>7.5299733025877402E-3</v>
       </c>
-      <c r="E22">
+      <c r="E22" s="2">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F22">
+      <c r="F22" s="2">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
+      <c r="G22" s="2"/>
       <c r="L22" t="s">
         <v>58</v>
       </c>
@@ -3047,17 +3068,18 @@
       <c r="C23" t="s">
         <v>85</v>
       </c>
-      <c r="D23">
+      <c r="D23" s="2">
         <v>7.4449788653985598E-3</v>
       </c>
-      <c r="E23">
+      <c r="E23" s="2">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F23">
+      <c r="F23" s="2">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
+      <c r="G23" s="2"/>
       <c r="L23" t="s">
         <v>124</v>
       </c>
@@ -3072,17 +3094,18 @@
       <c r="C24" t="s">
         <v>87</v>
       </c>
-      <c r="D24">
+      <c r="D24" s="2">
         <v>7.1906505034544203E-3</v>
       </c>
-      <c r="E24">
+      <c r="E24" s="2">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F24">
+      <c r="F24" s="2">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
+      <c r="G24" s="2"/>
       <c r="L24" t="s">
         <v>242</v>
       </c>
@@ -3097,17 +3120,18 @@
       <c r="C25" t="s">
         <v>89</v>
       </c>
-      <c r="D25">
+      <c r="D25" s="2">
         <v>7.1765993008453899E-3</v>
       </c>
-      <c r="E25" t="str">
+      <c r="E25" s="2" t="str">
         <f t="shared" si="0"/>
         <v>ufsl_number_of_tracts</v>
       </c>
-      <c r="F25">
+      <c r="F25" s="2">
         <f t="shared" si="1"/>
         <v>34</v>
       </c>
+      <c r="G25" s="2"/>
       <c r="L25" t="s">
         <v>76</v>
       </c>
@@ -3122,17 +3146,18 @@
       <c r="C26" t="s">
         <v>91</v>
       </c>
-      <c r="D26">
+      <c r="D26" s="2">
         <v>7.0938461115469401E-3</v>
       </c>
-      <c r="E26">
+      <c r="E26" s="2">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F26">
+      <c r="F26" s="2">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
+      <c r="G26" s="2"/>
       <c r="L26" t="s">
         <v>518</v>
       </c>
@@ -3147,17 +3172,18 @@
       <c r="C27" t="s">
         <v>93</v>
       </c>
-      <c r="D27">
+      <c r="D27" s="2">
         <v>7.0217867103227402E-3</v>
       </c>
-      <c r="E27">
+      <c r="E27" s="2">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F27">
+      <c r="F27" s="2">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
+      <c r="G27" s="2"/>
       <c r="L27" t="s">
         <v>96</v>
       </c>
@@ -3172,17 +3198,18 @@
       <c r="C28" t="s">
         <v>95</v>
       </c>
-      <c r="D28">
+      <c r="D28" s="2">
         <v>6.8926627522807498E-3</v>
       </c>
-      <c r="E28" t="str">
+      <c r="E28" s="2" t="str">
         <f t="shared" si="0"/>
         <v>slfr_volume</v>
       </c>
-      <c r="F28">
+      <c r="F28" s="2">
         <f t="shared" si="1"/>
         <v>32</v>
       </c>
+      <c r="G28" s="2"/>
       <c r="L28" t="s">
         <v>302</v>
       </c>
@@ -3197,17 +3224,18 @@
       <c r="C29" t="s">
         <v>97</v>
       </c>
-      <c r="D29">
+      <c r="D29" s="2">
         <v>6.8897339247920601E-3</v>
       </c>
-      <c r="E29" t="str">
+      <c r="E29" s="2" t="str">
         <f t="shared" si="0"/>
         <v>slfl_trunk_volume</v>
       </c>
-      <c r="F29">
+      <c r="F29" s="2">
         <f t="shared" si="1"/>
         <v>27</v>
       </c>
+      <c r="G29" s="2"/>
       <c r="L29" t="s">
         <v>312</v>
       </c>
@@ -3222,17 +3250,18 @@
       <c r="C30" t="s">
         <v>99</v>
       </c>
-      <c r="D30">
+      <c r="D30" s="2">
         <v>6.8625606915873596E-3</v>
       </c>
-      <c r="E30">
+      <c r="E30" s="2">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F30">
+      <c r="F30" s="2">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
+      <c r="G30" s="2"/>
       <c r="L30" t="s">
         <v>218</v>
       </c>
@@ -3247,17 +3276,18 @@
       <c r="C31" t="s">
         <v>101</v>
       </c>
-      <c r="D31">
+      <c r="D31" s="2">
         <v>6.8336642718147796E-3</v>
       </c>
-      <c r="E31">
+      <c r="E31" s="2">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F31">
+      <c r="F31" s="2">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
+      <c r="G31" s="2"/>
       <c r="L31" t="s">
         <v>564</v>
       </c>
@@ -3272,17 +3302,18 @@
       <c r="C32" t="s">
         <v>103</v>
       </c>
-      <c r="D32">
+      <c r="D32" s="2">
         <v>6.7812080959061202E-3</v>
       </c>
-      <c r="E32">
+      <c r="E32" s="2">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F32">
+      <c r="F32" s="2">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
+      <c r="G32" s="2"/>
       <c r="L32" t="s">
         <v>94</v>
       </c>
@@ -3297,17 +3328,18 @@
       <c r="C33" t="s">
         <v>105</v>
       </c>
-      <c r="D33">
+      <c r="D33" s="2">
         <v>6.7745540343617499E-3</v>
       </c>
-      <c r="E33">
+      <c r="E33" s="2">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F33">
+      <c r="F33" s="2">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
+      <c r="G33" s="2"/>
       <c r="L33" t="s">
         <v>410</v>
       </c>
@@ -3322,17 +3354,18 @@
       <c r="C34" t="s">
         <v>107</v>
       </c>
-      <c r="D34">
+      <c r="D34" s="2">
         <v>6.7584159640231697E-3</v>
       </c>
-      <c r="E34" t="str">
+      <c r="E34" s="2" t="str">
         <f t="shared" si="0"/>
         <v>ufsr_number_of_tracts</v>
       </c>
-      <c r="F34">
+      <c r="F34" s="2">
         <f t="shared" si="1"/>
         <v>38</v>
       </c>
+      <c r="G34" s="2"/>
       <c r="L34" t="s">
         <v>88</v>
       </c>
@@ -3347,17 +3380,18 @@
       <c r="C35" t="s">
         <v>109</v>
       </c>
-      <c r="D35">
+      <c r="D35" s="2">
         <v>6.7117590131453896E-3</v>
       </c>
-      <c r="E35">
+      <c r="E35" s="2">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F35">
+      <c r="F35" s="2">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
+      <c r="G35" s="2"/>
       <c r="L35" t="s">
         <v>454</v>
       </c>
@@ -3372,17 +3406,18 @@
       <c r="C36" t="s">
         <v>111</v>
       </c>
-      <c r="D36">
+      <c r="D36" s="2">
         <v>6.5615127619323404E-3</v>
       </c>
-      <c r="E36">
+      <c r="E36" s="2">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F36">
+      <c r="F36" s="2">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
+      <c r="G36" s="2"/>
       <c r="L36" t="s">
         <v>150</v>
       </c>
@@ -3397,17 +3432,18 @@
       <c r="C37" t="s">
         <v>113</v>
       </c>
-      <c r="D37">
+      <c r="D37" s="2">
         <v>6.5563073718505E-3</v>
       </c>
-      <c r="E37">
+      <c r="E37" s="2">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F37">
+      <c r="F37" s="2">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
+      <c r="G37" s="2"/>
       <c r="L37" t="s">
         <v>152</v>
       </c>
@@ -3422,17 +3458,18 @@
       <c r="C38" t="s">
         <v>115</v>
       </c>
-      <c r="D38">
+      <c r="D38" s="2">
         <v>6.5542752716818801E-3</v>
       </c>
-      <c r="E38">
+      <c r="E38" s="2">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F38">
+      <c r="F38" s="2">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
+      <c r="G38" s="2"/>
       <c r="L38" t="s">
         <v>106</v>
       </c>
@@ -3447,17 +3484,18 @@
       <c r="C39" t="s">
         <v>117</v>
       </c>
-      <c r="D39">
+      <c r="D39" s="2">
         <v>6.53441466064198E-3</v>
       </c>
-      <c r="E39">
+      <c r="E39" s="2">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F39">
+      <c r="F39" s="2">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
+      <c r="G39" s="2"/>
       <c r="L39" t="s">
         <v>506</v>
       </c>
@@ -3472,17 +3510,18 @@
       <c r="C40" t="s">
         <v>119</v>
       </c>
-      <c r="D40">
+      <c r="D40" s="2">
         <v>6.5091371010841496E-3</v>
       </c>
-      <c r="E40">
+      <c r="E40" s="2">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F40">
+      <c r="F40" s="2">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
+      <c r="G40" s="2"/>
       <c r="L40" t="s">
         <v>314</v>
       </c>
@@ -3497,17 +3536,18 @@
       <c r="C41" t="s">
         <v>121</v>
       </c>
-      <c r="D41">
+      <c r="D41" s="2">
         <v>6.5038306029502899E-3</v>
       </c>
-      <c r="E41">
+      <c r="E41" s="2">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F41">
+      <c r="F41" s="2">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
+      <c r="G41" s="2"/>
     </row>
     <row r="42" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B42" t="s">
@@ -3516,17 +3556,18 @@
       <c r="C42" t="s">
         <v>123</v>
       </c>
-      <c r="D42">
+      <c r="D42" s="2">
         <v>6.2459536044479503E-3</v>
       </c>
-      <c r="E42">
+      <c r="E42" s="2">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F42">
+      <c r="F42" s="2">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
+      <c r="G42" s="2"/>
     </row>
     <row r="43" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B43" t="s">
@@ -3535,17 +3576,18 @@
       <c r="C43" t="s">
         <v>125</v>
       </c>
-      <c r="D43">
+      <c r="D43" s="2">
         <v>6.2456675776622998E-3</v>
       </c>
-      <c r="E43" t="str">
+      <c r="E43" s="2" t="str">
         <f t="shared" si="0"/>
         <v>slfl_branch_volume</v>
       </c>
-      <c r="F43">
+      <c r="F43" s="2">
         <f t="shared" si="1"/>
         <v>23</v>
       </c>
+      <c r="G43" s="2"/>
     </row>
     <row r="44" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B44" t="s">
@@ -3554,17 +3596,18 @@
       <c r="C44" t="s">
         <v>127</v>
       </c>
-      <c r="D44">
+      <c r="D44" s="2">
         <v>6.1861164502485097E-3</v>
       </c>
-      <c r="E44">
+      <c r="E44" s="2">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F44">
+      <c r="F44" s="2">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
+      <c r="G44" s="2"/>
     </row>
     <row r="45" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B45" t="s">
@@ -3573,17 +3616,18 @@
       <c r="C45" t="s">
         <v>129</v>
       </c>
-      <c r="D45">
+      <c r="D45" s="2">
         <v>6.1557884218582702E-3</v>
       </c>
-      <c r="E45">
+      <c r="E45" s="2">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F45">
+      <c r="F45" s="2">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
+      <c r="G45" s="2"/>
     </row>
     <row r="46" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B46" t="s">
@@ -3592,17 +3636,18 @@
       <c r="C46" t="s">
         <v>131</v>
       </c>
-      <c r="D46">
+      <c r="D46" s="2">
         <v>6.1345403280314102E-3</v>
       </c>
-      <c r="E46">
+      <c r="E46" s="2">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F46">
+      <c r="F46" s="2">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
+      <c r="G46" s="2"/>
     </row>
     <row r="47" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B47" t="s">
@@ -3611,17 +3656,18 @@
       <c r="C47" t="s">
         <v>133</v>
       </c>
-      <c r="D47">
+      <c r="D47" s="2">
         <v>5.9082655202620004E-3</v>
       </c>
-      <c r="E47">
+      <c r="E47" s="2">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F47">
+      <c r="F47" s="2">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
+      <c r="G47" s="2"/>
     </row>
     <row r="48" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B48" t="s">
@@ -3630,1938 +3676,2040 @@
       <c r="C48" t="s">
         <v>135</v>
       </c>
-      <c r="D48">
+      <c r="D48" s="2">
         <v>5.90435096556516E-3</v>
       </c>
-      <c r="E48">
+      <c r="E48" s="2">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F48">
+      <c r="F48" s="2">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="G48" s="2"/>
+    </row>
+    <row r="49" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B49" t="s">
         <v>136</v>
       </c>
       <c r="C49" t="s">
         <v>137</v>
       </c>
-      <c r="D49">
+      <c r="D49" s="2">
         <v>5.8477196857185396E-3</v>
       </c>
-      <c r="E49">
+      <c r="E49" s="2">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F49">
+      <c r="F49" s="2">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="G49" s="2"/>
+    </row>
+    <row r="50" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B50" t="s">
         <v>138</v>
       </c>
       <c r="C50" t="s">
         <v>139</v>
       </c>
-      <c r="D50">
+      <c r="D50" s="2">
         <v>5.8266428369930902E-3</v>
       </c>
-      <c r="E50">
+      <c r="E50" s="2">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F50">
+      <c r="F50" s="2">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="G50" s="2"/>
+    </row>
+    <row r="51" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B51" t="s">
         <v>140</v>
       </c>
       <c r="C51" t="s">
         <v>141</v>
       </c>
-      <c r="D51">
+      <c r="D51" s="2">
         <v>5.7732459106053296E-3</v>
       </c>
-      <c r="E51">
+      <c r="E51" s="2">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F51">
+      <c r="F51" s="2">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="G51" s="2"/>
+    </row>
+    <row r="52" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B52" t="s">
         <v>142</v>
       </c>
       <c r="C52" t="s">
         <v>143</v>
       </c>
-      <c r="D52">
+      <c r="D52" s="2">
         <v>5.5205732203970704E-3</v>
       </c>
-      <c r="E52">
+      <c r="E52" s="2">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F52">
+      <c r="F52" s="2">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="G52" s="2"/>
+    </row>
+    <row r="53" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B53" t="s">
         <v>144</v>
       </c>
       <c r="C53" t="s">
         <v>145</v>
       </c>
-      <c r="D53">
+      <c r="D53" s="2">
         <v>5.4715933434513796E-3</v>
       </c>
-      <c r="E53">
+      <c r="E53" s="2">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F53">
+      <c r="F53" s="2">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="G53" s="2"/>
+    </row>
+    <row r="54" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B54" t="s">
         <v>146</v>
       </c>
       <c r="C54" t="s">
         <v>147</v>
       </c>
-      <c r="D54">
+      <c r="D54" s="2">
         <v>5.4346520535098501E-3</v>
       </c>
-      <c r="E54">
+      <c r="E54" s="2">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F54">
+      <c r="F54" s="2">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="55" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="G54" s="2"/>
+    </row>
+    <row r="55" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B55" t="s">
         <v>148</v>
       </c>
       <c r="C55" t="s">
         <v>149</v>
       </c>
-      <c r="D55">
+      <c r="D55" s="2">
         <v>5.4099243314865196E-3</v>
       </c>
-      <c r="E55">
+      <c r="E55" s="2">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F55">
+      <c r="F55" s="2">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="56" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="G55" s="2"/>
+    </row>
+    <row r="56" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B56" t="s">
         <v>150</v>
       </c>
       <c r="C56" t="s">
         <v>151</v>
       </c>
-      <c r="D56">
+      <c r="D56" s="2">
         <v>5.3758950230676696E-3</v>
       </c>
-      <c r="E56" t="str">
+      <c r="E56" s="2" t="str">
         <f t="shared" si="0"/>
         <v>ufsl_trunk_volume</v>
       </c>
-      <c r="F56">
+      <c r="F56" s="2">
         <f t="shared" si="1"/>
         <v>36</v>
       </c>
-    </row>
-    <row r="57" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="G56" s="2"/>
+    </row>
+    <row r="57" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B57" t="s">
         <v>152</v>
       </c>
       <c r="C57" t="s">
         <v>153</v>
       </c>
-      <c r="D57">
+      <c r="D57" s="2">
         <v>5.3443858668225097E-3</v>
       </c>
-      <c r="E57" t="str">
+      <c r="E57" s="2" t="str">
         <f t="shared" si="0"/>
         <v>ufsr_branch_volume</v>
       </c>
-      <c r="F57">
+      <c r="F57" s="2">
         <f t="shared" si="1"/>
         <v>37</v>
       </c>
-    </row>
-    <row r="58" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="G57" s="2"/>
+    </row>
+    <row r="58" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B58" t="s">
         <v>154</v>
       </c>
       <c r="C58" t="s">
         <v>155</v>
       </c>
-      <c r="D58">
+      <c r="D58" s="2">
         <v>5.2879079243074298E-3</v>
       </c>
-      <c r="E58">
+      <c r="E58" s="2">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F58">
+      <c r="F58" s="2">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="G58" s="2"/>
+    </row>
+    <row r="59" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B59" t="s">
         <v>156</v>
       </c>
       <c r="C59" t="s">
         <v>157</v>
       </c>
-      <c r="D59">
+      <c r="D59" s="2">
         <v>5.22645893812765E-3</v>
       </c>
-      <c r="E59">
+      <c r="E59" s="2">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F59">
+      <c r="F59" s="2">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="60" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="G59" s="2"/>
+    </row>
+    <row r="60" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B60" t="s">
         <v>158</v>
       </c>
       <c r="C60" t="s">
         <v>159</v>
       </c>
-      <c r="D60">
+      <c r="D60" s="2">
         <v>5.2245620434204498E-3</v>
       </c>
-      <c r="E60">
+      <c r="E60" s="2">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F60">
+      <c r="F60" s="2">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="G60" s="2"/>
+    </row>
+    <row r="61" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B61" t="s">
         <v>160</v>
       </c>
       <c r="C61" t="s">
         <v>161</v>
       </c>
-      <c r="D61">
+      <c r="D61" s="2">
         <v>5.0876180773154998E-3</v>
       </c>
-      <c r="E61">
+      <c r="E61" s="2">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F61">
+      <c r="F61" s="2">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="G61" s="2"/>
+    </row>
+    <row r="62" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B62" t="s">
         <v>162</v>
       </c>
       <c r="C62" t="s">
         <v>163</v>
       </c>
-      <c r="D62">
+      <c r="D62" s="2">
         <v>5.0807626097522504E-3</v>
       </c>
-      <c r="E62">
+      <c r="E62" s="2">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F62">
+      <c r="F62" s="2">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="G62" s="2"/>
+    </row>
+    <row r="63" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B63" t="s">
         <v>164</v>
       </c>
       <c r="C63" t="s">
         <v>165</v>
       </c>
-      <c r="D63">
+      <c r="D63" s="2">
         <v>5.0756973375733396E-3</v>
       </c>
-      <c r="E63" t="str">
+      <c r="E63" s="2" t="str">
         <f t="shared" si="0"/>
         <v>fatr_volume</v>
       </c>
-      <c r="F63">
+      <c r="F63" s="2">
         <f t="shared" si="1"/>
         <v>21</v>
       </c>
-    </row>
-    <row r="64" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="G63" s="2"/>
+    </row>
+    <row r="64" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B64" t="s">
         <v>166</v>
       </c>
       <c r="C64" t="s">
         <v>167</v>
       </c>
-      <c r="D64">
+      <c r="D64" s="2">
         <v>5.0310128055628496E-3</v>
       </c>
-      <c r="E64">
+      <c r="E64" s="2">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F64">
+      <c r="F64" s="2">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="G64" s="2"/>
+    </row>
+    <row r="65" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B65" t="s">
         <v>168</v>
       </c>
       <c r="C65" t="s">
         <v>169</v>
       </c>
-      <c r="D65">
+      <c r="D65" s="2">
         <v>4.9142982119756099E-3</v>
       </c>
-      <c r="E65">
+      <c r="E65" s="2">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F65">
+      <c r="F65" s="2">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="G65" s="2"/>
+    </row>
+    <row r="66" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B66" t="s">
         <v>170</v>
       </c>
       <c r="C66" t="s">
         <v>171</v>
       </c>
-      <c r="D66">
+      <c r="D66" s="2">
         <v>4.8570056654666498E-3</v>
       </c>
-      <c r="E66">
+      <c r="E66" s="2">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F66">
+      <c r="F66" s="2">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="67" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="G66" s="2"/>
+    </row>
+    <row r="67" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B67" t="s">
         <v>172</v>
       </c>
       <c r="C67" t="s">
         <v>173</v>
       </c>
-      <c r="D67">
+      <c r="D67" s="2">
         <v>4.8553728891640802E-3</v>
       </c>
-      <c r="E67">
+      <c r="E67" s="2">
         <f t="shared" ref="E67:E130" si="2">IF(ISERROR(VLOOKUP(B67,$L$1:$M$40,1,)),0,VLOOKUP(B67,$L$1:$M$40,1,))</f>
         <v>0</v>
       </c>
-      <c r="F67">
+      <c r="F67" s="2">
         <f t="shared" ref="F67:F130" si="3">IF(ISERROR(VLOOKUP(B67,$L$1:$M$40,2,)),0,VLOOKUP(B67,$L$1:$M$40,2,))</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="68" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="G67" s="2"/>
+    </row>
+    <row r="68" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B68" t="s">
         <v>174</v>
       </c>
       <c r="C68" t="s">
         <v>175</v>
       </c>
-      <c r="D68">
+      <c r="D68" s="2">
         <v>4.82785484400447E-3</v>
       </c>
-      <c r="E68">
+      <c r="E68" s="2">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="F68">
+      <c r="F68" s="2">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="G68" s="2"/>
+    </row>
+    <row r="69" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B69" t="s">
         <v>176</v>
       </c>
       <c r="C69" t="s">
         <v>177</v>
       </c>
-      <c r="D69">
+      <c r="D69" s="2">
         <v>4.8169961154520997E-3</v>
       </c>
-      <c r="E69">
+      <c r="E69" s="2">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="F69">
+      <c r="F69" s="2">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="G69" s="2"/>
+    </row>
+    <row r="70" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B70" t="s">
         <v>178</v>
       </c>
       <c r="C70" t="s">
         <v>179</v>
       </c>
-      <c r="D70">
+      <c r="D70" s="2">
         <v>4.7879347983609396E-3</v>
       </c>
-      <c r="E70">
+      <c r="E70" s="2">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="F70">
+      <c r="F70" s="2">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="G70" s="2"/>
+    </row>
+    <row r="71" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B71" t="s">
         <v>180</v>
       </c>
       <c r="C71" t="s">
         <v>181</v>
       </c>
-      <c r="D71">
+      <c r="D71" s="2">
         <v>4.77930686230365E-3</v>
       </c>
-      <c r="E71">
+      <c r="E71" s="2">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="F71">
+      <c r="F71" s="2">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="G71" s="2"/>
+    </row>
+    <row r="72" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B72" t="s">
         <v>182</v>
       </c>
       <c r="C72" t="s">
         <v>183</v>
       </c>
-      <c r="D72">
+      <c r="D72" s="2">
         <v>4.7193197064952898E-3</v>
       </c>
-      <c r="E72">
+      <c r="E72" s="2">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="F72">
+      <c r="F72" s="2">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="73" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="G72" s="2"/>
+    </row>
+    <row r="73" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B73" t="s">
         <v>184</v>
       </c>
       <c r="C73" t="s">
         <v>185</v>
       </c>
-      <c r="D73">
+      <c r="D73" s="2">
         <v>4.6800301577041899E-3</v>
       </c>
-      <c r="E73" t="str">
+      <c r="E73" s="2" t="str">
         <f t="shared" si="2"/>
         <v>fatr_number_of_tracts</v>
       </c>
-      <c r="F73">
+      <c r="F73" s="2">
         <f t="shared" si="3"/>
         <v>19</v>
       </c>
-    </row>
-    <row r="74" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="G73" s="2"/>
+    </row>
+    <row r="74" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B74" t="s">
         <v>186</v>
       </c>
       <c r="C74" t="s">
         <v>187</v>
       </c>
-      <c r="D74">
+      <c r="D74" s="2">
         <v>4.6413864019396204E-3</v>
       </c>
-      <c r="E74" t="str">
+      <c r="E74" s="2" t="str">
         <f t="shared" si="2"/>
         <v>fatr_branch_volume</v>
       </c>
-      <c r="F74">
+      <c r="F74" s="2">
         <f t="shared" si="3"/>
         <v>18</v>
       </c>
-    </row>
-    <row r="75" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="G74" s="2"/>
+    </row>
+    <row r="75" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B75" t="s">
         <v>188</v>
       </c>
       <c r="C75" t="s">
         <v>189</v>
       </c>
-      <c r="D75">
+      <c r="D75" s="2">
         <v>4.5925230065041404E-3</v>
       </c>
-      <c r="E75">
+      <c r="E75" s="2">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="F75">
+      <c r="F75" s="2">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="G75" s="2"/>
+    </row>
+    <row r="76" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B76" t="s">
         <v>190</v>
       </c>
       <c r="C76" t="s">
         <v>191</v>
       </c>
-      <c r="D76">
+      <c r="D76" s="2">
         <v>4.52915487046262E-3</v>
       </c>
-      <c r="E76">
+      <c r="E76" s="2">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="F76">
+      <c r="F76" s="2">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="77" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="G76" s="2"/>
+    </row>
+    <row r="77" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B77" t="s">
         <v>192</v>
       </c>
       <c r="C77" t="s">
         <v>193</v>
       </c>
-      <c r="D77">
+      <c r="D77" s="2">
         <v>4.5094776617192103E-3</v>
       </c>
-      <c r="E77">
+      <c r="E77" s="2">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="F77">
+      <c r="F77" s="2">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="78" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="G77" s="2"/>
+    </row>
+    <row r="78" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B78" t="s">
         <v>194</v>
       </c>
       <c r="C78" t="s">
         <v>195</v>
       </c>
-      <c r="D78">
+      <c r="D78" s="2">
         <v>4.49028770080067E-3</v>
       </c>
-      <c r="E78">
+      <c r="E78" s="2">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="F78">
+      <c r="F78" s="2">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="G78" s="2"/>
+    </row>
+    <row r="79" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B79" t="s">
         <v>196</v>
       </c>
       <c r="C79" t="s">
         <v>197</v>
       </c>
-      <c r="D79">
+      <c r="D79" s="2">
         <v>4.4889483894085397E-3</v>
       </c>
-      <c r="E79" t="str">
+      <c r="E79" s="2" t="str">
         <f t="shared" si="2"/>
         <v>cfpl_branch_volume</v>
       </c>
-      <c r="F79">
+      <c r="F79" s="2">
         <f t="shared" si="3"/>
         <v>7</v>
       </c>
-    </row>
-    <row r="80" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="G79" s="2"/>
+    </row>
+    <row r="80" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B80" t="s">
         <v>198</v>
       </c>
       <c r="C80" t="s">
         <v>199</v>
       </c>
-      <c r="D80">
+      <c r="D80" s="2">
         <v>4.4791220541646696E-3</v>
       </c>
-      <c r="E80">
+      <c r="E80" s="2">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="F80">
+      <c r="F80" s="2">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="81" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="G80" s="2"/>
+    </row>
+    <row r="81" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B81" t="s">
         <v>200</v>
       </c>
       <c r="C81" t="s">
         <v>201</v>
       </c>
-      <c r="D81">
+      <c r="D81" s="2">
         <v>4.4291222816379098E-3</v>
       </c>
-      <c r="E81">
+      <c r="E81" s="2">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="F81">
+      <c r="F81" s="2">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="82" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="G81" s="2"/>
+    </row>
+    <row r="82" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B82" t="s">
         <v>202</v>
       </c>
       <c r="C82" t="s">
         <v>203</v>
       </c>
-      <c r="D82">
+      <c r="D82" s="2">
         <v>4.41678401148227E-3</v>
       </c>
-      <c r="E82">
+      <c r="E82" s="2">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="F82">
+      <c r="F82" s="2">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="83" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="G82" s="2"/>
+    </row>
+    <row r="83" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B83" t="s">
         <v>204</v>
       </c>
       <c r="C83" t="s">
         <v>205</v>
       </c>
-      <c r="D83">
+      <c r="D83" s="2">
         <v>4.4088535785829601E-3</v>
       </c>
-      <c r="E83">
+      <c r="E83" s="2">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="F83">
+      <c r="F83" s="2">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="G83" s="2"/>
+    </row>
+    <row r="84" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B84" t="s">
         <v>206</v>
       </c>
       <c r="C84" t="s">
         <v>207</v>
       </c>
-      <c r="D84">
+      <c r="D84" s="2">
         <v>4.3893951839794401E-3</v>
       </c>
-      <c r="E84">
+      <c r="E84" s="2">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="F84">
+      <c r="F84" s="2">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="G84" s="2"/>
+    </row>
+    <row r="85" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B85" t="s">
         <v>208</v>
       </c>
       <c r="C85" t="s">
         <v>209</v>
       </c>
-      <c r="D85">
+      <c r="D85" s="2">
         <v>4.31056414191275E-3</v>
       </c>
-      <c r="E85">
+      <c r="E85" s="2">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="F85">
+      <c r="F85" s="2">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="G85" s="2"/>
+    </row>
+    <row r="86" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B86" t="s">
         <v>210</v>
       </c>
       <c r="C86" t="s">
         <v>211</v>
       </c>
-      <c r="D86">
+      <c r="D86" s="2">
         <v>4.2768610119300297E-3</v>
       </c>
-      <c r="E86" t="str">
+      <c r="E86" s="2" t="str">
         <f t="shared" si="2"/>
         <v>fatr_total_surface_area</v>
       </c>
-      <c r="F86">
+      <c r="F86" s="2">
         <f t="shared" si="3"/>
         <v>20</v>
       </c>
-    </row>
-    <row r="87" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="G86" s="2"/>
+    </row>
+    <row r="87" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B87" t="s">
         <v>212</v>
       </c>
       <c r="C87" t="s">
         <v>213</v>
       </c>
-      <c r="D87">
+      <c r="D87" s="2">
         <v>4.1611143109357802E-3</v>
       </c>
-      <c r="E87" t="str">
+      <c r="E87" s="2" t="str">
         <f t="shared" si="2"/>
         <v>cfpr_branch_volume</v>
       </c>
-      <c r="F87">
+      <c r="F87" s="2">
         <f t="shared" si="3"/>
         <v>10</v>
       </c>
-    </row>
-    <row r="88" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="G87" s="2"/>
+    </row>
+    <row r="88" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B88" t="s">
         <v>214</v>
       </c>
       <c r="C88" t="s">
         <v>215</v>
       </c>
-      <c r="D88">
+      <c r="D88" s="2">
         <v>4.1520327244791199E-3</v>
       </c>
-      <c r="E88">
+      <c r="E88" s="2">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="F88">
+      <c r="F88" s="2">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="G88" s="2"/>
+    </row>
+    <row r="89" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B89" t="s">
         <v>216</v>
       </c>
       <c r="C89" t="s">
         <v>217</v>
       </c>
-      <c r="D89">
+      <c r="D89" s="2">
         <v>4.13188603804957E-3</v>
       </c>
-      <c r="E89">
+      <c r="E89" s="2">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="F89">
+      <c r="F89" s="2">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="90" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="G89" s="2"/>
+    </row>
+    <row r="90" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B90" t="s">
         <v>218</v>
       </c>
       <c r="C90" t="s">
         <v>219</v>
       </c>
-      <c r="D90">
+      <c r="D90" s="2">
         <v>4.1170031022987E-3</v>
       </c>
-      <c r="E90" t="str">
+      <c r="E90" s="2" t="str">
         <f t="shared" si="2"/>
         <v>slfr_number_of_tracts</v>
       </c>
-      <c r="F90">
+      <c r="F90" s="2">
         <f t="shared" si="3"/>
         <v>30</v>
       </c>
-    </row>
-    <row r="91" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="G90" s="2"/>
+    </row>
+    <row r="91" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B91" t="s">
         <v>220</v>
       </c>
       <c r="C91" t="s">
         <v>221</v>
       </c>
-      <c r="D91">
+      <c r="D91" s="2">
         <v>4.1054105864751899E-3</v>
       </c>
-      <c r="E91">
+      <c r="E91" s="2">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="F91">
+      <c r="F91" s="2">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="G91" s="2"/>
+    </row>
+    <row r="92" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B92" t="s">
         <v>222</v>
       </c>
       <c r="C92" t="s">
         <v>223</v>
       </c>
-      <c r="D92">
+      <c r="D92" s="2">
         <v>4.0678116807459797E-3</v>
       </c>
-      <c r="E92">
+      <c r="E92" s="2">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="F92">
+      <c r="F92" s="2">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="G92" s="2"/>
+    </row>
+    <row r="93" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B93" t="s">
         <v>224</v>
       </c>
       <c r="C93" t="s">
         <v>225</v>
       </c>
-      <c r="D93">
+      <c r="D93" s="2">
         <v>4.0287298191209499E-3</v>
       </c>
-      <c r="E93">
+      <c r="E93" s="2">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="F93">
+      <c r="F93" s="2">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="G93" s="2"/>
+    </row>
+    <row r="94" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B94" t="s">
         <v>226</v>
       </c>
       <c r="C94" t="s">
         <v>227</v>
       </c>
-      <c r="D94">
+      <c r="D94" s="2">
         <v>4.02529753266756E-3</v>
       </c>
-      <c r="E94">
+      <c r="E94" s="2">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="F94">
+      <c r="F94" s="2">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="G94" s="2"/>
+    </row>
+    <row r="95" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B95" t="s">
         <v>228</v>
       </c>
       <c r="C95" t="s">
         <v>229</v>
       </c>
-      <c r="D95">
+      <c r="D95" s="2">
         <v>3.9996311326332802E-3</v>
       </c>
-      <c r="E95">
+      <c r="E95" s="2">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="F95">
+      <c r="F95" s="2">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="96" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="G95" s="2"/>
+    </row>
+    <row r="96" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B96" t="s">
         <v>230</v>
       </c>
       <c r="C96" t="s">
         <v>231</v>
       </c>
-      <c r="D96">
+      <c r="D96" s="2">
         <v>3.9710881739893596E-3</v>
       </c>
-      <c r="E96">
+      <c r="E96" s="2">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="F96">
+      <c r="F96" s="2">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="G96" s="2"/>
+    </row>
+    <row r="97" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B97" t="s">
         <v>232</v>
       </c>
       <c r="C97" t="s">
         <v>233</v>
       </c>
-      <c r="D97">
+      <c r="D97" s="2">
         <v>3.9403041794756804E-3</v>
       </c>
-      <c r="E97" t="str">
+      <c r="E97" s="2" t="str">
         <f t="shared" si="2"/>
         <v>cfpr_number_of_tracts</v>
       </c>
-      <c r="F97">
+      <c r="F97" s="2">
         <f t="shared" si="3"/>
         <v>11</v>
       </c>
-    </row>
-    <row r="98" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="G97" s="2"/>
+    </row>
+    <row r="98" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B98" t="s">
         <v>234</v>
       </c>
       <c r="C98" t="s">
         <v>235</v>
       </c>
-      <c r="D98">
+      <c r="D98" s="2">
         <v>3.9295287744158698E-3</v>
       </c>
-      <c r="E98">
+      <c r="E98" s="2">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="F98">
+      <c r="F98" s="2">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="G98" s="2"/>
+    </row>
+    <row r="99" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B99" t="s">
         <v>236</v>
       </c>
       <c r="C99" t="s">
         <v>237</v>
       </c>
-      <c r="D99">
+      <c r="D99" s="2">
         <v>3.9005268816168499E-3</v>
       </c>
-      <c r="E99">
+      <c r="E99" s="2">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="F99">
+      <c r="F99" s="2">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="G99" s="2"/>
+    </row>
+    <row r="100" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B100" t="s">
         <v>238</v>
       </c>
       <c r="C100" t="s">
         <v>239</v>
       </c>
-      <c r="D100">
+      <c r="D100" s="2">
         <v>3.8433370984609599E-3</v>
       </c>
-      <c r="E100">
+      <c r="E100" s="2">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="F100">
+      <c r="F100" s="2">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="G100" s="2"/>
+    </row>
+    <row r="101" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B101" t="s">
         <v>240</v>
       </c>
       <c r="C101" t="s">
         <v>241</v>
       </c>
-      <c r="D101">
+      <c r="D101" s="2">
         <v>3.7424816458452698E-3</v>
       </c>
-      <c r="E101">
+      <c r="E101" s="2">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="F101">
+      <c r="F101" s="2">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="G101" s="2"/>
+    </row>
+    <row r="102" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B102" t="s">
         <v>242</v>
       </c>
       <c r="C102" t="s">
         <v>243</v>
       </c>
-      <c r="D102">
+      <c r="D102" s="2">
         <v>3.7368842018474001E-3</v>
       </c>
-      <c r="E102" t="str">
+      <c r="E102" s="2" t="str">
         <f t="shared" si="2"/>
         <v>slfl_number_of_tracts</v>
       </c>
-      <c r="F102">
+      <c r="F102" s="2">
         <f t="shared" si="3"/>
         <v>24</v>
       </c>
-    </row>
-    <row r="103" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="G102" s="2"/>
+    </row>
+    <row r="103" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B103" t="s">
         <v>244</v>
       </c>
       <c r="C103" t="s">
         <v>245</v>
       </c>
-      <c r="D103">
+      <c r="D103" s="2">
         <v>3.68125636605759E-3</v>
       </c>
-      <c r="E103">
+      <c r="E103" s="2">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="F103">
+      <c r="F103" s="2">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="G103" s="2"/>
+    </row>
+    <row r="104" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B104" t="s">
         <v>246</v>
       </c>
       <c r="C104" t="s">
         <v>247</v>
       </c>
-      <c r="D104">
+      <c r="D104" s="2">
         <v>3.6668859319804801E-3</v>
       </c>
-      <c r="E104">
+      <c r="E104" s="2">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="F104">
+      <c r="F104" s="2">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="105" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="G104" s="2"/>
+    </row>
+    <row r="105" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B105" t="s">
         <v>248</v>
       </c>
       <c r="C105" t="s">
         <v>249</v>
       </c>
-      <c r="D105">
+      <c r="D105" s="2">
         <v>3.6347759088073998E-3</v>
       </c>
-      <c r="E105">
+      <c r="E105" s="2">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="F105">
+      <c r="F105" s="2">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="106" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="G105" s="2"/>
+    </row>
+    <row r="106" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B106" t="s">
         <v>250</v>
       </c>
       <c r="C106" t="s">
         <v>251</v>
       </c>
-      <c r="D106">
+      <c r="D106" s="2">
         <v>3.6303765107411601E-3</v>
       </c>
-      <c r="E106">
+      <c r="E106" s="2">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="F106">
+      <c r="F106" s="2">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="107" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="G106" s="2"/>
+    </row>
+    <row r="107" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B107" t="s">
         <v>252</v>
       </c>
       <c r="C107" t="s">
         <v>253</v>
       </c>
-      <c r="D107">
+      <c r="D107" s="2">
         <v>3.5972748372662899E-3</v>
       </c>
-      <c r="E107">
+      <c r="E107" s="2">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="F107">
+      <c r="F107" s="2">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="108" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="G107" s="2"/>
+    </row>
+    <row r="108" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B108" t="s">
         <v>254</v>
       </c>
       <c r="C108" t="s">
         <v>255</v>
       </c>
-      <c r="D108">
+      <c r="D108" s="2">
         <v>3.5551431778123102E-3</v>
       </c>
-      <c r="E108">
+      <c r="E108" s="2">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="F108">
+      <c r="F108" s="2">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="109" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="G108" s="2"/>
+    </row>
+    <row r="109" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B109" t="s">
         <v>256</v>
       </c>
       <c r="C109" t="s">
         <v>257</v>
       </c>
-      <c r="D109">
+      <c r="D109" s="2">
         <v>3.5386020009746501E-3</v>
       </c>
-      <c r="E109">
+      <c r="E109" s="2">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="F109">
+      <c r="F109" s="2">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="110" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="G109" s="2"/>
+    </row>
+    <row r="110" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B110" t="s">
         <v>258</v>
       </c>
       <c r="C110" t="s">
         <v>259</v>
       </c>
-      <c r="D110">
+      <c r="D110" s="2">
         <v>3.48427123304229E-3</v>
       </c>
-      <c r="E110" t="str">
+      <c r="E110" s="2" t="str">
         <f t="shared" si="2"/>
         <v>fatl_trunk_volume</v>
       </c>
-      <c r="F110">
+      <c r="F110" s="2">
         <f t="shared" si="3"/>
         <v>17</v>
       </c>
-    </row>
-    <row r="111" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="G110" s="2"/>
+    </row>
+    <row r="111" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B111" t="s">
         <v>260</v>
       </c>
       <c r="C111" t="s">
         <v>261</v>
       </c>
-      <c r="D111">
+      <c r="D111" s="2">
         <v>3.42002468143441E-3</v>
       </c>
-      <c r="E111">
+      <c r="E111" s="2">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="F111">
+      <c r="F111" s="2">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="112" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="G111" s="2"/>
+    </row>
+    <row r="112" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B112" t="s">
         <v>262</v>
       </c>
       <c r="C112" t="s">
         <v>263</v>
       </c>
-      <c r="D112">
+      <c r="D112" s="2">
         <v>3.3988467538163202E-3</v>
       </c>
-      <c r="E112">
+      <c r="E112" s="2">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="F112">
+      <c r="F112" s="2">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="113" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="G112" s="2"/>
+    </row>
+    <row r="113" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B113" t="s">
         <v>264</v>
       </c>
       <c r="C113" t="s">
         <v>265</v>
       </c>
-      <c r="D113">
+      <c r="D113" s="2">
         <v>3.3615869554035E-3</v>
       </c>
-      <c r="E113">
+      <c r="E113" s="2">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="F113">
+      <c r="F113" s="2">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="114" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="G113" s="2"/>
+    </row>
+    <row r="114" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B114" t="s">
         <v>266</v>
       </c>
       <c r="C114" t="s">
         <v>267</v>
       </c>
-      <c r="D114">
+      <c r="D114" s="2">
         <v>3.3409929092186601E-3</v>
       </c>
-      <c r="E114">
+      <c r="E114" s="2">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="F114">
+      <c r="F114" s="2">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="115" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="G114" s="2"/>
+    </row>
+    <row r="115" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B115" t="s">
         <v>268</v>
       </c>
       <c r="C115" t="s">
         <v>269</v>
       </c>
-      <c r="D115">
+      <c r="D115" s="2">
         <v>3.32354674480189E-3</v>
       </c>
-      <c r="E115">
+      <c r="E115" s="2">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="F115">
+      <c r="F115" s="2">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="116" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="G115" s="2"/>
+    </row>
+    <row r="116" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B116" t="s">
         <v>270</v>
       </c>
       <c r="C116" t="s">
         <v>271</v>
       </c>
-      <c r="D116">
+      <c r="D116" s="2">
         <v>3.3139932510197101E-3</v>
       </c>
-      <c r="E116">
+      <c r="E116" s="2">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="F116">
+      <c r="F116" s="2">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="117" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="G116" s="2"/>
+    </row>
+    <row r="117" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B117" t="s">
         <v>272</v>
       </c>
       <c r="C117" t="s">
         <v>273</v>
       </c>
-      <c r="D117">
+      <c r="D117" s="2">
         <v>3.3105417477532401E-3</v>
       </c>
-      <c r="E117">
+      <c r="E117" s="2">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="F117">
+      <c r="F117" s="2">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="118" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="G117" s="2"/>
+    </row>
+    <row r="118" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B118" t="s">
         <v>274</v>
       </c>
       <c r="C118" t="s">
         <v>275</v>
       </c>
-      <c r="D118">
+      <c r="D118" s="2">
         <v>3.2931610555731799E-3</v>
       </c>
-      <c r="E118">
+      <c r="E118" s="2">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="F118">
+      <c r="F118" s="2">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="119" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="G118" s="2"/>
+    </row>
+    <row r="119" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B119" t="s">
         <v>276</v>
       </c>
       <c r="C119" t="s">
         <v>277</v>
       </c>
-      <c r="D119">
+      <c r="D119" s="2">
         <v>3.2872698560717901E-3</v>
       </c>
-      <c r="E119">
+      <c r="E119" s="2">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="F119">
+      <c r="F119" s="2">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="120" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="G119" s="2"/>
+    </row>
+    <row r="120" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B120" t="s">
         <v>278</v>
       </c>
       <c r="C120" t="s">
         <v>279</v>
       </c>
-      <c r="D120">
+      <c r="D120" s="2">
         <v>3.2458645289298298E-3</v>
       </c>
-      <c r="E120">
+      <c r="E120" s="2">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="F120">
+      <c r="F120" s="2">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="121" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="G120" s="2"/>
+    </row>
+    <row r="121" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B121" t="s">
         <v>280</v>
       </c>
       <c r="C121" t="s">
         <v>281</v>
       </c>
-      <c r="D121">
+      <c r="D121" s="2">
         <v>3.2405807694223499E-3</v>
       </c>
-      <c r="E121" t="str">
+      <c r="E121" s="2" t="str">
         <f t="shared" si="2"/>
         <v>fatl_total_surface_area</v>
       </c>
-      <c r="F121">
+      <c r="F121" s="2">
         <f t="shared" si="3"/>
         <v>16</v>
       </c>
-    </row>
-    <row r="122" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="G121" s="2"/>
+    </row>
+    <row r="122" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B122" t="s">
         <v>282</v>
       </c>
       <c r="C122" t="s">
         <v>283</v>
       </c>
-      <c r="D122">
+      <c r="D122" s="2">
         <v>3.23080234973966E-3</v>
       </c>
-      <c r="E122">
+      <c r="E122" s="2">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="F122">
+      <c r="F122" s="2">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="123" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="G122" s="2"/>
+    </row>
+    <row r="123" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B123" t="s">
         <v>284</v>
       </c>
       <c r="C123" t="s">
         <v>285</v>
       </c>
-      <c r="D123">
+      <c r="D123" s="2">
         <v>3.2258911636990398E-3</v>
       </c>
-      <c r="E123">
+      <c r="E123" s="2">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="F123">
+      <c r="F123" s="2">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="124" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="G123" s="2"/>
+    </row>
+    <row r="124" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B124" t="s">
         <v>286</v>
       </c>
       <c r="C124" t="s">
         <v>287</v>
       </c>
-      <c r="D124">
+      <c r="D124" s="2">
         <v>3.2250829792492301E-3</v>
       </c>
-      <c r="E124">
+      <c r="E124" s="2">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="F124">
+      <c r="F124" s="2">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="125" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="G124" s="2"/>
+    </row>
+    <row r="125" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B125" t="s">
         <v>288</v>
       </c>
       <c r="C125" t="s">
         <v>289</v>
       </c>
-      <c r="D125">
+      <c r="D125" s="2">
         <v>3.22236735781165E-3</v>
       </c>
-      <c r="E125">
+      <c r="E125" s="2">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="F125">
+      <c r="F125" s="2">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="126" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="G125" s="2"/>
+    </row>
+    <row r="126" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B126" t="s">
         <v>290</v>
       </c>
       <c r="C126" t="s">
         <v>291</v>
       </c>
-      <c r="D126">
+      <c r="D126" s="2">
         <v>3.21385189148439E-3</v>
       </c>
-      <c r="E126">
+      <c r="E126" s="2">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="F126">
+      <c r="F126" s="2">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="127" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="G126" s="2"/>
+    </row>
+    <row r="127" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B127" t="s">
         <v>292</v>
       </c>
       <c r="C127" t="s">
         <v>293</v>
       </c>
-      <c r="D127">
+      <c r="D127" s="2">
         <v>3.20925080890418E-3</v>
       </c>
-      <c r="E127">
+      <c r="E127" s="2">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="F127">
+      <c r="F127" s="2">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="128" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="G127" s="2"/>
+    </row>
+    <row r="128" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B128" t="s">
         <v>294</v>
       </c>
       <c r="C128" t="s">
         <v>295</v>
       </c>
-      <c r="D128">
+      <c r="D128" s="2">
         <v>3.1995916055886499E-3</v>
       </c>
-      <c r="E128" t="str">
+      <c r="E128" s="2" t="str">
         <f t="shared" si="2"/>
         <v>afsr_total_surface_area</v>
       </c>
-      <c r="F128">
+      <c r="F128" s="2">
         <f t="shared" si="3"/>
         <v>6</v>
       </c>
-    </row>
-    <row r="129" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="G128" s="2"/>
+    </row>
+    <row r="129" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B129" t="s">
         <v>296</v>
       </c>
       <c r="C129" t="s">
         <v>297</v>
       </c>
-      <c r="D129">
+      <c r="D129" s="2">
         <v>3.1149948752257199E-3</v>
       </c>
-      <c r="E129">
+      <c r="E129" s="2">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="F129">
+      <c r="F129" s="2">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="130" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="G129" s="2"/>
+    </row>
+    <row r="130" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B130" t="s">
         <v>298</v>
       </c>
       <c r="C130" t="s">
         <v>299</v>
       </c>
-      <c r="D130">
+      <c r="D130" s="2">
         <v>3.11372372417448E-3</v>
       </c>
-      <c r="E130" t="str">
+      <c r="E130" s="2" t="str">
         <f t="shared" si="2"/>
         <v>afsr_total_area_of_end_regions</v>
       </c>
-      <c r="F130">
+      <c r="F130" s="2">
         <f t="shared" si="3"/>
         <v>5</v>
       </c>
-    </row>
-    <row r="131" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="G130" s="2"/>
+    </row>
+    <row r="131" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B131" t="s">
         <v>300</v>
       </c>
       <c r="C131" t="s">
         <v>301</v>
       </c>
-      <c r="D131">
+      <c r="D131" s="2">
         <v>3.09874902555876E-3</v>
       </c>
-      <c r="E131">
+      <c r="E131" s="2">
         <f t="shared" ref="E131:E194" si="4">IF(ISERROR(VLOOKUP(B131,$L$1:$M$40,1,)),0,VLOOKUP(B131,$L$1:$M$40,1,))</f>
         <v>0</v>
       </c>
-      <c r="F131">
+      <c r="F131" s="2">
         <f t="shared" ref="F131:F194" si="5">IF(ISERROR(VLOOKUP(B131,$L$1:$M$40,2,)),0,VLOOKUP(B131,$L$1:$M$40,2,))</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="132" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="G131" s="2"/>
+    </row>
+    <row r="132" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B132" t="s">
         <v>302</v>
       </c>
       <c r="C132" t="s">
         <v>303</v>
       </c>
-      <c r="D132">
+      <c r="D132" s="2">
         <v>3.0955432142977602E-3</v>
       </c>
-      <c r="E132" t="str">
+      <c r="E132" s="2" t="str">
         <f t="shared" si="4"/>
         <v>slfr_area_of_end_region_2</v>
       </c>
-      <c r="F132">
+      <c r="F132" s="2">
         <f t="shared" si="5"/>
         <v>28</v>
       </c>
-    </row>
-    <row r="133" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="G132" s="2"/>
+    </row>
+    <row r="133" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B133" t="s">
         <v>304</v>
       </c>
       <c r="C133" t="s">
         <v>305</v>
       </c>
-      <c r="D133">
+      <c r="D133" s="2">
         <v>3.07115016400143E-3</v>
       </c>
-      <c r="E133">
+      <c r="E133" s="2">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="F133">
+      <c r="F133" s="2">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="134" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="G133" s="2"/>
+    </row>
+    <row r="134" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B134" t="s">
         <v>306</v>
       </c>
       <c r="C134" t="s">
         <v>307</v>
       </c>
-      <c r="D134">
+      <c r="D134" s="2">
         <v>3.0659275445109298E-3</v>
       </c>
-      <c r="E134">
+      <c r="E134" s="2">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="F134">
+      <c r="F134" s="2">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="135" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="G134" s="2"/>
+    </row>
+    <row r="135" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B135" t="s">
         <v>308</v>
       </c>
       <c r="C135" t="s">
         <v>309</v>
       </c>
-      <c r="D135">
+      <c r="D135" s="2">
         <v>3.0584489173861602E-3</v>
       </c>
-      <c r="E135">
+      <c r="E135" s="2">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="F135">
+      <c r="F135" s="2">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="136" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="G135" s="2"/>
+    </row>
+    <row r="136" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B136" t="s">
         <v>310</v>
       </c>
       <c r="C136" t="s">
         <v>311</v>
       </c>
-      <c r="D136">
+      <c r="D136" s="2">
         <v>2.94329567272504E-3</v>
       </c>
-      <c r="E136">
+      <c r="E136" s="2">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="F136">
+      <c r="F136" s="2">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="137" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="G136" s="2"/>
+    </row>
+    <row r="137" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B137" t="s">
         <v>312</v>
       </c>
       <c r="C137" t="s">
         <v>313</v>
       </c>
-      <c r="D137">
+      <c r="D137" s="2">
         <v>2.9228143703631201E-3</v>
       </c>
-      <c r="E137" t="str">
+      <c r="E137" s="2" t="str">
         <f t="shared" si="4"/>
         <v>slfr_branch_volume</v>
       </c>
-      <c r="F137">
+      <c r="F137" s="2">
         <f t="shared" si="5"/>
         <v>29</v>
       </c>
-    </row>
-    <row r="138" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="G137" s="2"/>
+    </row>
+    <row r="138" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B138" t="s">
         <v>314</v>
       </c>
       <c r="C138" t="s">
         <v>315</v>
       </c>
-      <c r="D138">
+      <c r="D138" s="2">
         <v>2.8348090013845298E-3</v>
       </c>
-      <c r="E138" t="str">
+      <c r="E138" s="2" t="str">
         <f t="shared" si="4"/>
         <v>ufsr_volume</v>
       </c>
-      <c r="F138">
+      <c r="F138" s="2">
         <f t="shared" si="5"/>
         <v>40</v>
       </c>
-    </row>
-    <row r="139" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="G138" s="2"/>
+    </row>
+    <row r="139" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B139" t="s">
         <v>316</v>
       </c>
       <c r="C139" t="s">
         <v>317</v>
       </c>
-      <c r="D139">
+      <c r="D139" s="2">
         <v>2.8128121551860598E-3</v>
       </c>
-      <c r="E139">
+      <c r="E139" s="2">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="F139">
+      <c r="F139" s="2">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="140" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="G139" s="2"/>
+    </row>
+    <row r="140" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B140" t="s">
         <v>318</v>
       </c>
       <c r="C140" t="s">
         <v>319</v>
       </c>
-      <c r="D140">
+      <c r="D140" s="2">
         <v>2.7786070962719E-3</v>
       </c>
-      <c r="E140">
+      <c r="E140" s="2">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="F140">
+      <c r="F140" s="2">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="141" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="G140" s="2"/>
+    </row>
+    <row r="141" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B141" t="s">
         <v>320</v>
       </c>
       <c r="C141" t="s">
         <v>321</v>
       </c>
-      <c r="D141">
+      <c r="D141" s="2">
         <v>2.7691674522346298E-3</v>
       </c>
-      <c r="E141">
+      <c r="E141" s="2">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="F141">
+      <c r="F141" s="2">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="142" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="G141" s="2"/>
+    </row>
+    <row r="142" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B142" t="s">
         <v>322</v>
       </c>
       <c r="C142" t="s">
         <v>323</v>
       </c>
-      <c r="D142">
+      <c r="D142" s="2">
         <v>2.7161204419131101E-3</v>
       </c>
-      <c r="E142">
+      <c r="E142" s="2">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="F142">
+      <c r="F142" s="2">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="143" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="G142" s="2"/>
+    </row>
+    <row r="143" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B143" t="s">
         <v>324</v>
       </c>
       <c r="C143" t="s">
         <v>325</v>
       </c>
-      <c r="D143">
+      <c r="D143" s="2">
         <v>2.6979340263576998E-3</v>
       </c>
-      <c r="E143">
+      <c r="E143" s="2">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="F143">
+      <c r="F143" s="2">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="144" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="G143" s="2"/>
+    </row>
+    <row r="144" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B144" t="s">
         <v>326</v>
       </c>
       <c r="C144" t="s">
         <v>327</v>
       </c>
-      <c r="D144">
+      <c r="D144" s="2">
         <v>2.6823080789754299E-3</v>
       </c>
-      <c r="E144">
+      <c r="E144" s="2">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="F144">
+      <c r="F144" s="2">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="145" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="G144" s="2"/>
+    </row>
+    <row r="145" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B145" t="s">
         <v>328</v>
       </c>
       <c r="C145" t="s">
         <v>329</v>
       </c>
-      <c r="D145">
+      <c r="D145" s="2">
         <v>2.6788570190617398E-3</v>
       </c>
-      <c r="E145">
+      <c r="E145" s="2">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="F145">
+      <c r="F145" s="2">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="146" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="G145" s="2"/>
+    </row>
+    <row r="146" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B146" t="s">
         <v>330</v>
       </c>
       <c r="C146" t="s">
         <v>331</v>
       </c>
-      <c r="D146">
+      <c r="D146" s="2">
         <v>2.6672514620338398E-3</v>
       </c>
-      <c r="E146" t="str">
+      <c r="E146" s="2" t="str">
         <f t="shared" si="4"/>
         <v>afsl_trunk_volume</v>
       </c>
-      <c r="F146">
+      <c r="F146" s="2">
         <f t="shared" si="5"/>
         <v>4</v>
       </c>
-    </row>
-    <row r="147" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="G146" s="2"/>
+    </row>
+    <row r="147" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B147" t="s">
         <v>332</v>
       </c>
       <c r="C147" t="s">
         <v>333</v>
       </c>
-      <c r="D147">
+      <c r="D147" s="2">
         <v>2.66281225338077E-3</v>
       </c>
-      <c r="E147">
+      <c r="E147" s="2">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="F147">
+      <c r="F147" s="2">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="148" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="G147" s="2"/>
+    </row>
+    <row r="148" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B148" t="s">
         <v>334</v>
       </c>
       <c r="C148" t="s">
         <v>335</v>
       </c>
-      <c r="D148">
+      <c r="D148" s="2">
         <v>2.6425818285571901E-3</v>
       </c>
-      <c r="E148">
+      <c r="E148" s="2">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="F148">
+      <c r="F148" s="2">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="149" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="G148" s="2"/>
+    </row>
+    <row r="149" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B149" t="s">
         <v>336</v>
       </c>
       <c r="C149" t="s">
         <v>337</v>
       </c>
-      <c r="D149">
+      <c r="D149" s="2">
         <v>2.6133639416307201E-3</v>
       </c>
-      <c r="E149">
+      <c r="E149" s="2">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="F149">
+      <c r="F149" s="2">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="150" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="G149" s="2"/>
+    </row>
+    <row r="150" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B150" t="s">
         <v>338</v>
       </c>
@@ -5580,7 +5728,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="151" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="151" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B151" t="s">
         <v>340</v>
       </c>
@@ -5599,7 +5747,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="152" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="152" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B152" t="s">
         <v>342</v>
       </c>
@@ -5618,7 +5766,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="153" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="153" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B153" t="s">
         <v>344</v>
       </c>
@@ -5637,7 +5785,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="154" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="154" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B154" t="s">
         <v>346</v>
       </c>
@@ -5656,7 +5804,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="155" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="155" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B155" t="s">
         <v>348</v>
       </c>
@@ -5675,7 +5823,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="156" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="156" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B156" t="s">
         <v>350</v>
       </c>
@@ -5694,7 +5842,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="157" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="157" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B157" t="s">
         <v>352</v>
       </c>
@@ -5713,7 +5861,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="158" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="158" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B158" t="s">
         <v>354</v>
       </c>
@@ -5732,7 +5880,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="159" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="159" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B159" t="s">
         <v>356</v>
       </c>
@@ -5751,7 +5899,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="160" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="160" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B160" t="s">
         <v>358</v>
       </c>
